--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B358A1-9A6C-4269-B108-B8503E0BE54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93485D3D-739D-46D2-9396-669F0AAF14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{2ADB74BA-AC9B-424E-B427-E2CFAD9C8379}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5E752DE-C2EA-4FF5-B966-2B6001996F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
+  <si>
+    <t>Danh sách chủ cho thuê.</t>
+  </si>
   <si>
     <t>Họ tên</t>
   </si>
@@ -181,12 +184,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE86B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,8 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26A619-CF61-44F0-8E67-325388A9D63F}">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA8E77D-8C69-4393-A7A6-D7216CC8D969}">
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -539,133 +579,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>889</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44386</v>
-      </c>
-      <c r="D4">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>500000</v>
-      </c>
-      <c r="H4">
-        <v>100000</v>
-      </c>
-      <c r="I4">
-        <v>70000</v>
-      </c>
-      <c r="J4">
-        <v>100000</v>
-      </c>
-      <c r="K4">
-        <v>100000</v>
-      </c>
-      <c r="L4">
-        <v>150000</v>
-      </c>
-      <c r="M4">
-        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44417</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44386</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -691,19 +698,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44448</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44417</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -728,99 +735,99 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44448</v>
+      </c>
+      <c r="D7">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7">
+        <v>500000</v>
+      </c>
+      <c r="H7">
+        <v>100000</v>
+      </c>
+      <c r="I7">
+        <v>70000</v>
+      </c>
+      <c r="J7">
+        <v>100000</v>
+      </c>
+      <c r="K7">
+        <v>100000</v>
+      </c>
+      <c r="L7">
+        <v>150000</v>
+      </c>
+      <c r="M7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44386</v>
-      </c>
-      <c r="D8">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>2000000</v>
-      </c>
-      <c r="H8">
-        <v>3000000</v>
-      </c>
-      <c r="I8">
-        <v>200000</v>
-      </c>
-      <c r="J8">
-        <v>300000</v>
-      </c>
-      <c r="K8">
-        <v>300000</v>
-      </c>
-      <c r="L8">
-        <v>500000</v>
-      </c>
-      <c r="M8">
-        <v>300000</v>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44417</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44386</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -846,19 +853,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44448</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44417</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -883,154 +890,133 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44448</v>
+      </c>
+      <c r="D11">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11">
+        <v>2000000</v>
+      </c>
+      <c r="H11">
+        <v>3000000</v>
+      </c>
+      <c r="I11">
+        <v>200000</v>
+      </c>
+      <c r="J11">
+        <v>300000</v>
+      </c>
+      <c r="K11">
+        <v>300000</v>
+      </c>
+      <c r="L11">
+        <v>500000</v>
+      </c>
+      <c r="M11">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
         <v>880</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="6">
         <v>38119</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44478</v>
-      </c>
-      <c r="D13">
-        <v>160</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>500000</v>
-      </c>
-      <c r="H13">
-        <v>100000</v>
-      </c>
-      <c r="I13">
-        <v>70000</v>
-      </c>
-      <c r="J13">
-        <v>100000</v>
-      </c>
-      <c r="K13">
-        <v>100000</v>
-      </c>
-      <c r="L13">
-        <v>150000</v>
-      </c>
-      <c r="M13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44509</v>
-      </c>
-      <c r="D14">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>500000</v>
-      </c>
-      <c r="H14">
-        <v>100000</v>
-      </c>
-      <c r="I14">
-        <v>70000</v>
-      </c>
-      <c r="J14">
-        <v>100000</v>
-      </c>
-      <c r="K14">
-        <v>100000</v>
-      </c>
-      <c r="L14">
-        <v>150000</v>
-      </c>
-      <c r="M14">
-        <v>100000</v>
+      <c r="M14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44539</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44478</v>
       </c>
       <c r="D15">
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>500000</v>
@@ -1058,17 +1044,17 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="C16" s="6">
+        <v>44509</v>
       </c>
       <c r="D16">
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>500000</v>
@@ -1096,17 +1082,17 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
+      <c r="C17" s="6">
+        <v>44539</v>
       </c>
       <c r="D17">
         <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>500000</v>
@@ -1131,137 +1117,137 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>160</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>500000</v>
+      </c>
+      <c r="H18">
+        <v>100000</v>
+      </c>
+      <c r="I18">
+        <v>70000</v>
+      </c>
+      <c r="J18">
+        <v>100000</v>
+      </c>
+      <c r="K18">
+        <v>100000</v>
+      </c>
+      <c r="L18">
+        <v>150000</v>
+      </c>
+      <c r="M18">
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44478</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
       </c>
       <c r="D19">
         <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="H19">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="I19">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="J19">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="K19">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="L19">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M19">
-        <v>300000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44509</v>
-      </c>
-      <c r="D20">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20">
-        <v>2000000</v>
-      </c>
-      <c r="H20">
-        <v>3000000</v>
-      </c>
-      <c r="I20">
-        <v>200000</v>
-      </c>
-      <c r="J20">
-        <v>300000</v>
-      </c>
-      <c r="K20">
-        <v>300000</v>
-      </c>
-      <c r="L20">
-        <v>500000</v>
-      </c>
-      <c r="M20">
-        <v>300000</v>
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44539</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44478</v>
       </c>
       <c r="D21">
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>2000000</v>
@@ -1287,19 +1273,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44509</v>
       </c>
       <c r="D22">
         <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>2000000</v>
@@ -1325,19 +1311,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44539</v>
       </c>
       <c r="D23">
         <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>2000000</v>
@@ -1362,192 +1348,171 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>2000000</v>
+      </c>
+      <c r="H24">
+        <v>3000000</v>
+      </c>
+      <c r="I24">
+        <v>200000</v>
+      </c>
+      <c r="J24">
+        <v>300000</v>
+      </c>
+      <c r="K24">
+        <v>300000</v>
+      </c>
+      <c r="L24">
+        <v>500000</v>
+      </c>
+      <c r="M24">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>2000000</v>
+      </c>
+      <c r="H25">
+        <v>3000000</v>
+      </c>
+      <c r="I25">
+        <v>200000</v>
+      </c>
+      <c r="J25">
+        <v>300000</v>
+      </c>
+      <c r="K25">
+        <v>300000</v>
+      </c>
+      <c r="L25">
+        <v>500000</v>
+      </c>
+      <c r="M25">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
         <v>890</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D27" s="6">
         <v>38177</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M25" t="s">
+      <c r="L28" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>500000</v>
-      </c>
-      <c r="H26">
-        <v>100000</v>
-      </c>
-      <c r="I26">
-        <v>70000</v>
-      </c>
-      <c r="J26">
-        <v>100000</v>
-      </c>
-      <c r="K26">
-        <v>100000</v>
-      </c>
-      <c r="L26">
-        <v>150000</v>
-      </c>
-      <c r="M26">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27">
-        <v>500000</v>
-      </c>
-      <c r="H27">
-        <v>100000</v>
-      </c>
-      <c r="I27">
-        <v>70000</v>
-      </c>
-      <c r="J27">
-        <v>100000</v>
-      </c>
-      <c r="K27">
-        <v>100000</v>
-      </c>
-      <c r="L27">
-        <v>150000</v>
-      </c>
-      <c r="M27">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>160</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28">
-        <v>500000</v>
-      </c>
-      <c r="H28">
-        <v>100000</v>
-      </c>
-      <c r="I28">
-        <v>70000</v>
-      </c>
-      <c r="J28">
-        <v>100000</v>
-      </c>
-      <c r="K28">
-        <v>100000</v>
-      </c>
-      <c r="L28">
-        <v>150000</v>
-      </c>
-      <c r="M28">
-        <v>100000</v>
+      <c r="M28" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29">
         <v>500000</v>
@@ -1573,19 +1538,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
       <c r="D30">
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30">
         <v>500000</v>
@@ -1611,19 +1576,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31">
         <v>500000</v>
@@ -1648,175 +1613,175 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>500000</v>
+      </c>
+      <c r="H32">
+        <v>100000</v>
+      </c>
+      <c r="I32">
+        <v>70000</v>
+      </c>
+      <c r="J32">
+        <v>100000</v>
+      </c>
+      <c r="K32">
+        <v>100000</v>
+      </c>
+      <c r="L32">
+        <v>150000</v>
+      </c>
+      <c r="M32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>500000</v>
+      </c>
+      <c r="H33">
+        <v>100000</v>
+      </c>
+      <c r="I33">
+        <v>70000</v>
+      </c>
+      <c r="J33">
+        <v>100000</v>
+      </c>
+      <c r="K33">
+        <v>100000</v>
+      </c>
+      <c r="L33">
+        <v>150000</v>
+      </c>
+      <c r="M33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D34">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>500000</v>
+      </c>
+      <c r="H34">
+        <v>100000</v>
+      </c>
+      <c r="I34">
+        <v>70000</v>
+      </c>
+      <c r="J34">
+        <v>100000</v>
+      </c>
+      <c r="K34">
+        <v>100000</v>
+      </c>
+      <c r="L34">
+        <v>150000</v>
+      </c>
+      <c r="M34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L32" t="s">
+      <c r="K35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M32" t="s">
+      <c r="L35" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33">
-        <v>160</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="M35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="G33">
-        <v>2000000</v>
-      </c>
-      <c r="H33">
-        <v>3000000</v>
-      </c>
-      <c r="I33">
-        <v>200000</v>
-      </c>
-      <c r="J33">
-        <v>300000</v>
-      </c>
-      <c r="K33">
-        <v>300000</v>
-      </c>
-      <c r="L33">
-        <v>500000</v>
-      </c>
-      <c r="M33">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34">
-        <v>2000000</v>
-      </c>
-      <c r="H34">
-        <v>3000000</v>
-      </c>
-      <c r="I34">
-        <v>200000</v>
-      </c>
-      <c r="J34">
-        <v>300000</v>
-      </c>
-      <c r="K34">
-        <v>300000</v>
-      </c>
-      <c r="L34">
-        <v>500000</v>
-      </c>
-      <c r="M34">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35">
-        <v>160</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35">
-        <v>2000000</v>
-      </c>
-      <c r="H35">
-        <v>3000000</v>
-      </c>
-      <c r="I35">
-        <v>200000</v>
-      </c>
-      <c r="J35">
-        <v>300000</v>
-      </c>
-      <c r="K35">
-        <v>300000</v>
-      </c>
-      <c r="L35">
-        <v>500000</v>
-      </c>
-      <c r="M35">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36">
-        <v>160</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>2000000</v>
@@ -1840,21 +1805,21 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <v>2000000</v>
@@ -1878,21 +1843,21 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>2000000</v>
@@ -1913,6 +1878,120 @@
         <v>500000</v>
       </c>
       <c r="M38">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>2000000</v>
+      </c>
+      <c r="H39">
+        <v>3000000</v>
+      </c>
+      <c r="I39">
+        <v>200000</v>
+      </c>
+      <c r="J39">
+        <v>300000</v>
+      </c>
+      <c r="K39">
+        <v>300000</v>
+      </c>
+      <c r="L39">
+        <v>500000</v>
+      </c>
+      <c r="M39">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>2000000</v>
+      </c>
+      <c r="H40">
+        <v>3000000</v>
+      </c>
+      <c r="I40">
+        <v>200000</v>
+      </c>
+      <c r="J40">
+        <v>300000</v>
+      </c>
+      <c r="K40">
+        <v>300000</v>
+      </c>
+      <c r="L40">
+        <v>500000</v>
+      </c>
+      <c r="M40">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41">
+        <v>2000000</v>
+      </c>
+      <c r="H41">
+        <v>3000000</v>
+      </c>
+      <c r="I41">
+        <v>200000</v>
+      </c>
+      <c r="J41">
+        <v>300000</v>
+      </c>
+      <c r="K41">
+        <v>300000</v>
+      </c>
+      <c r="L41">
+        <v>500000</v>
+      </c>
+      <c r="M41">
         <v>300000</v>
       </c>
     </row>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93485D3D-739D-46D2-9396-669F0AAF14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E122B102-3664-433C-9FF1-B677697630A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5E752DE-C2EA-4FF5-B966-2B6001996F0A}"/>
+    <workbookView xWindow="4140" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{2C73BF3A-F843-4A8C-B357-03E6B332C49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,12 +555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA8E77D-8C69-4393-A7A6-D7216CC8D969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB38068-134A-41E9-9D79-4C8D25681C7C}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E122B102-3664-433C-9FF1-B677697630A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6771DF53-FF66-4FFC-B5C3-F480866800FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{2C73BF3A-F843-4A8C-B357-03E6B332C49A}"/>
+    <workbookView xWindow="4140" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{87091C71-4333-48EA-815C-44D53B2BDB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="52">
   <si>
     <t>Danh sách chủ cho thuê.</t>
   </si>
@@ -102,15 +102,21 @@
     <t>Tập lái</t>
   </si>
   <si>
+    <t>Danh sách 3 xe bốn chỗ của Bui Quang Hoan</t>
+  </si>
+  <si>
+    <t>Vinfast Fadil</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
     <t>Danh sách 3 xe bảy chỗ của Bui Quang Hoan</t>
   </si>
   <si>
-    <t>Vinfast Fadil</t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
     <t>Đám cưới</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t>14/09/2021</t>
   </si>
   <si>
+    <t>Danh sách 5 xe bốn chỗ của Nguyen Van An</t>
+  </si>
+  <si>
     <t>Danh sách 5 xe bảy chỗ của Nguyen Van An</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
   </si>
   <si>
     <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>Danh sách 6 xe bốn chỗ của Nguyen Van Hung</t>
   </si>
   <si>
     <t>Danh sách 6 xe bảy chỗ của Nguyen Van Hung</t>
@@ -555,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB38068-134A-41E9-9D79-4C8D25681C7C}">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2150FA-ECAA-4287-BDF6-935954BCFC2F}">
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -828,25 +840,25 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H9">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="I9">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="J9">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K9">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L9">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="M9">
-        <v>300000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -866,25 +878,25 @@
         <v>28</v>
       </c>
       <c r="G10">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H10">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="I10">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="J10">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="K10">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="L10">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="M10">
-        <v>300000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -904,865 +916,869 @@
         <v>28</v>
       </c>
       <c r="G11">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H11">
+        <v>2000000</v>
+      </c>
+      <c r="I11">
+        <v>140000</v>
+      </c>
+      <c r="J11">
+        <v>200000</v>
+      </c>
+      <c r="K11">
+        <v>200000</v>
+      </c>
+      <c r="L11">
+        <v>300000</v>
+      </c>
+      <c r="M11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44386</v>
+      </c>
+      <c r="D13">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>2000000</v>
+      </c>
+      <c r="H13">
         <v>3000000</v>
       </c>
-      <c r="I11">
-        <v>200000</v>
-      </c>
-      <c r="J11">
-        <v>300000</v>
-      </c>
-      <c r="K11">
-        <v>300000</v>
-      </c>
-      <c r="L11">
-        <v>500000</v>
-      </c>
-      <c r="M11">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="I13">
+        <v>200000</v>
+      </c>
+      <c r="J13">
+        <v>300000</v>
+      </c>
+      <c r="K13">
+        <v>300000</v>
+      </c>
+      <c r="L13">
+        <v>500000</v>
+      </c>
+      <c r="M13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44417</v>
+      </c>
+      <c r="D14">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>880</v>
-      </c>
-      <c r="D13" s="6">
-        <v>38119</v>
-      </c>
-      <c r="E13">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>20</v>
+      <c r="G14">
+        <v>2000000</v>
+      </c>
+      <c r="H14">
+        <v>3000000</v>
+      </c>
+      <c r="I14">
+        <v>200000</v>
+      </c>
+      <c r="J14">
+        <v>300000</v>
+      </c>
+      <c r="K14">
+        <v>300000</v>
+      </c>
+      <c r="L14">
+        <v>500000</v>
+      </c>
+      <c r="M14">
+        <v>300000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44448</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>2000000</v>
+      </c>
+      <c r="H15">
+        <v>3000000</v>
+      </c>
+      <c r="I15">
+        <v>200000</v>
+      </c>
+      <c r="J15">
+        <v>300000</v>
+      </c>
+      <c r="K15">
+        <v>300000</v>
+      </c>
+      <c r="L15">
+        <v>500000</v>
+      </c>
+      <c r="M15">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C18">
+        <v>880</v>
+      </c>
+      <c r="D18" s="6">
+        <v>38119</v>
+      </c>
+      <c r="E18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6">
         <v>44478</v>
       </c>
-      <c r="D15">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D20">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G15">
-        <v>500000</v>
-      </c>
-      <c r="H15">
-        <v>100000</v>
-      </c>
-      <c r="I15">
+      <c r="G20">
+        <v>500000</v>
+      </c>
+      <c r="H20">
+        <v>100000</v>
+      </c>
+      <c r="I20">
         <v>70000</v>
       </c>
-      <c r="J15">
-        <v>100000</v>
-      </c>
-      <c r="K15">
-        <v>100000</v>
-      </c>
-      <c r="L15">
+      <c r="J20">
+        <v>100000</v>
+      </c>
+      <c r="K20">
+        <v>100000</v>
+      </c>
+      <c r="L20">
         <v>150000</v>
       </c>
-      <c r="M15">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6">
-        <v>44509</v>
-      </c>
-      <c r="D16">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>500000</v>
-      </c>
-      <c r="H16">
-        <v>100000</v>
-      </c>
-      <c r="I16">
-        <v>70000</v>
-      </c>
-      <c r="J16">
-        <v>100000</v>
-      </c>
-      <c r="K16">
-        <v>100000</v>
-      </c>
-      <c r="L16">
-        <v>150000</v>
-      </c>
-      <c r="M16">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6">
-        <v>44539</v>
-      </c>
-      <c r="D17">
-        <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>500000</v>
-      </c>
-      <c r="H17">
-        <v>100000</v>
-      </c>
-      <c r="I17">
-        <v>70000</v>
-      </c>
-      <c r="J17">
-        <v>100000</v>
-      </c>
-      <c r="K17">
-        <v>100000</v>
-      </c>
-      <c r="L17">
-        <v>150000</v>
-      </c>
-      <c r="M17">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>160</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18">
-        <v>500000</v>
-      </c>
-      <c r="H18">
-        <v>100000</v>
-      </c>
-      <c r="I18">
-        <v>70000</v>
-      </c>
-      <c r="J18">
-        <v>100000</v>
-      </c>
-      <c r="K18">
-        <v>100000</v>
-      </c>
-      <c r="L18">
-        <v>150000</v>
-      </c>
-      <c r="M18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>160</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <v>500000</v>
-      </c>
-      <c r="H19">
-        <v>100000</v>
-      </c>
-      <c r="I19">
-        <v>70000</v>
-      </c>
-      <c r="J19">
-        <v>100000</v>
-      </c>
-      <c r="K19">
-        <v>100000</v>
-      </c>
-      <c r="L19">
-        <v>150000</v>
-      </c>
-      <c r="M19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>20</v>
+      <c r="M20">
+        <v>100000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6">
-        <v>44478</v>
+        <v>44509</v>
       </c>
       <c r="D21">
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="H21">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="I21">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="J21">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="K21">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="L21">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M21">
-        <v>300000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6">
-        <v>44509</v>
+        <v>44539</v>
       </c>
       <c r="D22">
         <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G22">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="H22">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="I22">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="J22">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="K22">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="L22">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M22">
-        <v>300000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6">
-        <v>44539</v>
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
       </c>
       <c r="D23">
         <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="H23">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="I23">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="J23">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="K23">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="L23">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M23">
-        <v>300000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>500000</v>
+      </c>
+      <c r="H24">
+        <v>100000</v>
+      </c>
+      <c r="I24">
+        <v>70000</v>
+      </c>
+      <c r="J24">
+        <v>100000</v>
+      </c>
+      <c r="K24">
+        <v>100000</v>
+      </c>
+      <c r="L24">
+        <v>150000</v>
+      </c>
+      <c r="M24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44478</v>
+      </c>
+      <c r="D26">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="G24">
-        <v>2000000</v>
-      </c>
-      <c r="H24">
-        <v>3000000</v>
-      </c>
-      <c r="I24">
-        <v>200000</v>
-      </c>
-      <c r="J24">
-        <v>300000</v>
-      </c>
-      <c r="K24">
-        <v>300000</v>
-      </c>
-      <c r="L24">
-        <v>500000</v>
-      </c>
-      <c r="M24">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G26">
+        <v>1000000</v>
+      </c>
+      <c r="H26">
+        <v>2000000</v>
+      </c>
+      <c r="I26">
+        <v>140000</v>
+      </c>
+      <c r="J26">
+        <v>200000</v>
+      </c>
+      <c r="K26">
+        <v>200000</v>
+      </c>
+      <c r="L26">
+        <v>300000</v>
+      </c>
+      <c r="M26">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44509</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G25">
-        <v>2000000</v>
-      </c>
-      <c r="H25">
-        <v>3000000</v>
-      </c>
-      <c r="I25">
-        <v>200000</v>
-      </c>
-      <c r="J25">
-        <v>300000</v>
-      </c>
-      <c r="K25">
-        <v>300000</v>
-      </c>
-      <c r="L25">
-        <v>500000</v>
-      </c>
-      <c r="M25">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>890</v>
-      </c>
-      <c r="D27" s="6">
-        <v>38177</v>
-      </c>
-      <c r="E27">
-        <v>125</v>
+      <c r="G27">
+        <v>1000000</v>
+      </c>
+      <c r="H27">
+        <v>2000000</v>
+      </c>
+      <c r="I27">
+        <v>140000</v>
+      </c>
+      <c r="J27">
+        <v>200000</v>
+      </c>
+      <c r="K27">
+        <v>200000</v>
+      </c>
+      <c r="L27">
+        <v>300000</v>
+      </c>
+      <c r="M27">
+        <v>200000</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>20</v>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44539</v>
+      </c>
+      <c r="D28">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>1000000</v>
+      </c>
+      <c r="H28">
+        <v>2000000</v>
+      </c>
+      <c r="I28">
+        <v>140000</v>
+      </c>
+      <c r="J28">
+        <v>200000</v>
+      </c>
+      <c r="K28">
+        <v>200000</v>
+      </c>
+      <c r="L28">
+        <v>300000</v>
+      </c>
+      <c r="M28">
+        <v>200000</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="H29">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="I29">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="J29">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="K29">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="L29">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="M29">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="H30">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="I30">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="J30">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="K30">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="L30">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="M30">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31">
-        <v>500000</v>
-      </c>
-      <c r="H31">
-        <v>100000</v>
-      </c>
-      <c r="I31">
-        <v>70000</v>
-      </c>
-      <c r="J31">
-        <v>100000</v>
-      </c>
-      <c r="K31">
-        <v>100000</v>
-      </c>
-      <c r="L31">
-        <v>150000</v>
-      </c>
-      <c r="M31">
-        <v>100000</v>
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44478</v>
       </c>
       <c r="D32">
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H32">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="I32">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="J32">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="K32">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="L32">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="M32">
-        <v>100000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44509</v>
       </c>
       <c r="D33">
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H33">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="I33">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="J33">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="K33">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="L33">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="M33">
-        <v>100000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44539</v>
       </c>
       <c r="D34">
         <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H34">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="I34">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="J34">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="K34">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="L34">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="M34">
-        <v>100000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>20</v>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>2000000</v>
+      </c>
+      <c r="H35">
+        <v>3000000</v>
+      </c>
+      <c r="I35">
+        <v>200000</v>
+      </c>
+      <c r="J35">
+        <v>300000</v>
+      </c>
+      <c r="K35">
+        <v>300000</v>
+      </c>
+      <c r="L35">
+        <v>500000</v>
+      </c>
+      <c r="M35">
+        <v>300000</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1770,7 +1786,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>160</v>
@@ -1779,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>2000000</v>
@@ -1803,193 +1819,844 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="D37">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>2000000</v>
-      </c>
-      <c r="H37">
-        <v>3000000</v>
-      </c>
-      <c r="I37">
-        <v>200000</v>
-      </c>
-      <c r="J37">
-        <v>300000</v>
-      </c>
-      <c r="K37">
-        <v>300000</v>
-      </c>
-      <c r="L37">
-        <v>500000</v>
-      </c>
-      <c r="M37">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38">
-        <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38">
-        <v>2000000</v>
-      </c>
-      <c r="H38">
-        <v>3000000</v>
-      </c>
-      <c r="I38">
-        <v>200000</v>
-      </c>
-      <c r="J38">
-        <v>300000</v>
-      </c>
-      <c r="K38">
-        <v>300000</v>
-      </c>
-      <c r="L38">
-        <v>500000</v>
-      </c>
-      <c r="M38">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <v>160</v>
-      </c>
-      <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39">
-        <v>2000000</v>
-      </c>
-      <c r="H39">
-        <v>3000000</v>
-      </c>
-      <c r="I39">
-        <v>200000</v>
-      </c>
-      <c r="J39">
-        <v>300000</v>
-      </c>
-      <c r="K39">
-        <v>300000</v>
-      </c>
-      <c r="L39">
-        <v>500000</v>
-      </c>
-      <c r="M39">
-        <v>300000</v>
+      <c r="C39">
+        <v>890</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38177</v>
+      </c>
+      <c r="E39">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40">
-        <v>2000000</v>
-      </c>
-      <c r="H40">
-        <v>3000000</v>
-      </c>
-      <c r="I40">
-        <v>200000</v>
-      </c>
-      <c r="J40">
-        <v>300000</v>
-      </c>
-      <c r="K40">
-        <v>300000</v>
-      </c>
-      <c r="L40">
-        <v>500000</v>
-      </c>
-      <c r="M40">
-        <v>300000</v>
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>500000</v>
+      </c>
+      <c r="H41">
+        <v>100000</v>
+      </c>
+      <c r="I41">
+        <v>70000</v>
+      </c>
+      <c r="J41">
+        <v>100000</v>
+      </c>
+      <c r="K41">
+        <v>100000</v>
+      </c>
+      <c r="L41">
+        <v>150000</v>
+      </c>
+      <c r="M41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>500000</v>
+      </c>
+      <c r="H42">
+        <v>100000</v>
+      </c>
+      <c r="I42">
+        <v>70000</v>
+      </c>
+      <c r="J42">
+        <v>100000</v>
+      </c>
+      <c r="K42">
+        <v>100000</v>
+      </c>
+      <c r="L42">
+        <v>150000</v>
+      </c>
+      <c r="M42">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D41">
-        <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D43">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>500000</v>
+      </c>
+      <c r="H43">
+        <v>100000</v>
+      </c>
+      <c r="I43">
+        <v>70000</v>
+      </c>
+      <c r="J43">
+        <v>100000</v>
+      </c>
+      <c r="K43">
+        <v>100000</v>
+      </c>
+      <c r="L43">
+        <v>150000</v>
+      </c>
+      <c r="M43">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>500000</v>
+      </c>
+      <c r="H44">
+        <v>100000</v>
+      </c>
+      <c r="I44">
+        <v>70000</v>
+      </c>
+      <c r="J44">
+        <v>100000</v>
+      </c>
+      <c r="K44">
+        <v>100000</v>
+      </c>
+      <c r="L44">
+        <v>150000</v>
+      </c>
+      <c r="M44">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>500000</v>
+      </c>
+      <c r="H45">
+        <v>100000</v>
+      </c>
+      <c r="I45">
+        <v>70000</v>
+      </c>
+      <c r="J45">
+        <v>100000</v>
+      </c>
+      <c r="K45">
+        <v>100000</v>
+      </c>
+      <c r="L45">
+        <v>150000</v>
+      </c>
+      <c r="M45">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>500000</v>
+      </c>
+      <c r="H46">
+        <v>100000</v>
+      </c>
+      <c r="I46">
+        <v>70000</v>
+      </c>
+      <c r="J46">
+        <v>100000</v>
+      </c>
+      <c r="K46">
+        <v>100000</v>
+      </c>
+      <c r="L46">
+        <v>150000</v>
+      </c>
+      <c r="M46">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
         <v>28</v>
       </c>
-      <c r="G41">
-        <v>2000000</v>
-      </c>
-      <c r="H41">
+      <c r="G48">
+        <v>1000000</v>
+      </c>
+      <c r="H48">
+        <v>2000000</v>
+      </c>
+      <c r="I48">
+        <v>140000</v>
+      </c>
+      <c r="J48">
+        <v>200000</v>
+      </c>
+      <c r="K48">
+        <v>200000</v>
+      </c>
+      <c r="L48">
+        <v>300000</v>
+      </c>
+      <c r="M48">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49">
+        <v>1000000</v>
+      </c>
+      <c r="H49">
+        <v>2000000</v>
+      </c>
+      <c r="I49">
+        <v>140000</v>
+      </c>
+      <c r="J49">
+        <v>200000</v>
+      </c>
+      <c r="K49">
+        <v>200000</v>
+      </c>
+      <c r="L49">
+        <v>300000</v>
+      </c>
+      <c r="M49">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>160</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50">
+        <v>1000000</v>
+      </c>
+      <c r="H50">
+        <v>2000000</v>
+      </c>
+      <c r="I50">
+        <v>140000</v>
+      </c>
+      <c r="J50">
+        <v>200000</v>
+      </c>
+      <c r="K50">
+        <v>200000</v>
+      </c>
+      <c r="L50">
+        <v>300000</v>
+      </c>
+      <c r="M50">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>1000000</v>
+      </c>
+      <c r="H51">
+        <v>2000000</v>
+      </c>
+      <c r="I51">
+        <v>140000</v>
+      </c>
+      <c r="J51">
+        <v>200000</v>
+      </c>
+      <c r="K51">
+        <v>200000</v>
+      </c>
+      <c r="L51">
+        <v>300000</v>
+      </c>
+      <c r="M51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52">
+        <v>1000000</v>
+      </c>
+      <c r="H52">
+        <v>2000000</v>
+      </c>
+      <c r="I52">
+        <v>140000</v>
+      </c>
+      <c r="J52">
+        <v>200000</v>
+      </c>
+      <c r="K52">
+        <v>200000</v>
+      </c>
+      <c r="L52">
+        <v>300000</v>
+      </c>
+      <c r="M52">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53">
+        <v>1000000</v>
+      </c>
+      <c r="H53">
+        <v>2000000</v>
+      </c>
+      <c r="I53">
+        <v>140000</v>
+      </c>
+      <c r="J53">
+        <v>200000</v>
+      </c>
+      <c r="K53">
+        <v>200000</v>
+      </c>
+      <c r="L53">
+        <v>300000</v>
+      </c>
+      <c r="M53">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>2000000</v>
+      </c>
+      <c r="H55">
         <v>3000000</v>
       </c>
-      <c r="I41">
-        <v>200000</v>
-      </c>
-      <c r="J41">
-        <v>300000</v>
-      </c>
-      <c r="K41">
-        <v>300000</v>
-      </c>
-      <c r="L41">
-        <v>500000</v>
-      </c>
-      <c r="M41">
+      <c r="I55">
+        <v>200000</v>
+      </c>
+      <c r="J55">
+        <v>300000</v>
+      </c>
+      <c r="K55">
+        <v>300000</v>
+      </c>
+      <c r="L55">
+        <v>500000</v>
+      </c>
+      <c r="M55">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>2000000</v>
+      </c>
+      <c r="H56">
+        <v>3000000</v>
+      </c>
+      <c r="I56">
+        <v>200000</v>
+      </c>
+      <c r="J56">
+        <v>300000</v>
+      </c>
+      <c r="K56">
+        <v>300000</v>
+      </c>
+      <c r="L56">
+        <v>500000</v>
+      </c>
+      <c r="M56">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>2000000</v>
+      </c>
+      <c r="H57">
+        <v>3000000</v>
+      </c>
+      <c r="I57">
+        <v>200000</v>
+      </c>
+      <c r="J57">
+        <v>300000</v>
+      </c>
+      <c r="K57">
+        <v>300000</v>
+      </c>
+      <c r="L57">
+        <v>500000</v>
+      </c>
+      <c r="M57">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>2000000</v>
+      </c>
+      <c r="H58">
+        <v>3000000</v>
+      </c>
+      <c r="I58">
+        <v>200000</v>
+      </c>
+      <c r="J58">
+        <v>300000</v>
+      </c>
+      <c r="K58">
+        <v>300000</v>
+      </c>
+      <c r="L58">
+        <v>500000</v>
+      </c>
+      <c r="M58">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>2000000</v>
+      </c>
+      <c r="H59">
+        <v>3000000</v>
+      </c>
+      <c r="I59">
+        <v>200000</v>
+      </c>
+      <c r="J59">
+        <v>300000</v>
+      </c>
+      <c r="K59">
+        <v>300000</v>
+      </c>
+      <c r="L59">
+        <v>500000</v>
+      </c>
+      <c r="M59">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>2000000</v>
+      </c>
+      <c r="H60">
+        <v>3000000</v>
+      </c>
+      <c r="I60">
+        <v>200000</v>
+      </c>
+      <c r="J60">
+        <v>300000</v>
+      </c>
+      <c r="K60">
+        <v>300000</v>
+      </c>
+      <c r="L60">
+        <v>500000</v>
+      </c>
+      <c r="M60">
         <v>300000</v>
       </c>
     </row>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6771DF53-FF66-4FFC-B5C3-F480866800FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E824BD4-4D09-43D9-86CA-FAA895EF156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{87091C71-4333-48EA-815C-44D53B2BDB2B}"/>
+    <workbookView xWindow="4488" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{A788A20E-A194-4679-AC80-CF6B2C46778E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2150FA-ECAA-4287-BDF6-935954BCFC2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B20FD9-8679-423A-BF4A-5B0F27E5853B}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E824BD4-4D09-43D9-86CA-FAA895EF156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{A788A20E-A194-4679-AC80-CF6B2C46778E}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -54,6 +43,9 @@
     <t>16/04/2004</t>
   </si>
   <si>
+    <t>Danh sách 3 xe máy của Bui Quang Hoan</t>
+  </si>
+  <si>
     <t>Hãng xe</t>
   </si>
   <si>
@@ -75,7 +67,7 @@
     <t>Tiền cọc</t>
   </si>
   <si>
-    <t>Giá đền xức xe</t>
+    <t>Giá đền xước xe</t>
   </si>
   <si>
     <t>Giá đền bể bánh</t>
@@ -88,9 +80,6 @@
   </si>
   <si>
     <t>Tăng giá</t>
-  </si>
-  <si>
-    <t>Danh sách 3 xe máy của Bui Quang Hoan</t>
   </si>
   <si>
     <t>Honda</t>
@@ -186,17 +175,167 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,18 +362,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEE86B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9ACD32"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEE86B"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,37 +567,553 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,7 +1129,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -300,7 +1141,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -314,12 +1155,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -347,31 +1188,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -399,23 +1223,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,43 +1364,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B20FD9-8679-423A-BF4A-5B0F27E5853B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="10.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
+    <col min="9" max="9" width="15.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -627,48 +1432,48 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -706,7 +1511,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -744,7 +1549,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -782,48 +1587,48 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -861,7 +1666,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -899,7 +1704,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -937,48 +1742,48 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1821,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1859,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1897,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1126,48 +1931,48 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1205,7 +2010,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +2048,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +2086,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +2124,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1357,48 +2162,48 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="K25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +2241,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +2279,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1512,7 +2317,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +2355,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -1588,48 +2393,48 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="K31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +2472,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -1705,7 +2510,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +2548,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -1781,7 +2586,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +2624,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1853,48 +2658,48 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="K40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="L40" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +2737,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +2775,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>45</v>
       </c>
@@ -2008,7 +2813,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -2046,7 +2851,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -2084,7 +2889,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -2122,48 +2927,48 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="K47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="L47" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M47" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>26</v>
       </c>
@@ -2201,7 +3006,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +3044,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +3082,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +3120,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +3158,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>26</v>
       </c>
@@ -2391,48 +3196,48 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="G54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="H54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="I54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="K54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="L54" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M54" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>26</v>
       </c>
@@ -2470,7 +3275,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
         <v>26</v>
       </c>
@@ -2508,7 +3313,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13">
       <c r="B57" t="s">
         <v>26</v>
       </c>
@@ -2546,7 +3351,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>26</v>
       </c>
@@ -2584,7 +3389,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
         <v>26</v>
       </c>
@@ -2622,7 +3427,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13">
       <c r="B60" t="s">
         <v>26</v>
       </c>
@@ -2661,6 +3466,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD43B64B-713D-45E0-8792-CDC2919C21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="4488" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{EF7EF3D9-521D-4C39-BC2E-0EFCE83EFBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="53">
   <si>
     <t>Danh sách chủ cho thuê.</t>
   </si>
@@ -43,43 +54,46 @@
     <t>16/04/2004</t>
   </si>
   <si>
+    <t>Hãng xe</t>
+  </si>
+  <si>
+    <t>Năm mua</t>
+  </si>
+  <si>
+    <t>Số kilomet Đã đi</t>
+  </si>
+  <si>
+    <t>Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Giá thuê một ngày</t>
+  </si>
+  <si>
+    <t>Tiền cọc</t>
+  </si>
+  <si>
+    <t>Giá đền xước xe</t>
+  </si>
+  <si>
+    <t>Giá đền bể bánh</t>
+  </si>
+  <si>
+    <t>Giá đền hư đèn</t>
+  </si>
+  <si>
+    <t>Ưu đãi</t>
+  </si>
+  <si>
+    <t>Tăng giá</t>
+  </si>
+  <si>
+    <t>Đã thuê</t>
+  </si>
+  <si>
     <t>Danh sách 3 xe máy của Bui Quang Hoan</t>
-  </si>
-  <si>
-    <t>Hãng xe</t>
-  </si>
-  <si>
-    <t>Năm mua</t>
-  </si>
-  <si>
-    <t>Số kilomet Đã đi</t>
-  </si>
-  <si>
-    <t>Bảo hiểm</t>
-  </si>
-  <si>
-    <t>Mục đích</t>
-  </si>
-  <si>
-    <t>Giá thuê một ngày</t>
-  </si>
-  <si>
-    <t>Tiền cọc</t>
-  </si>
-  <si>
-    <t>Giá đền xước xe</t>
-  </si>
-  <si>
-    <t>Giá đền bể bánh</t>
-  </si>
-  <si>
-    <t>Giá đền hư đèn</t>
-  </si>
-  <si>
-    <t>Ưu đãi</t>
-  </si>
-  <si>
-    <t>Tăng giá</t>
   </si>
   <si>
     <t>Honda</t>
@@ -175,167 +189,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,204 +226,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEE86B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9ACD32"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFEEE86B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -567,553 +245,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1129,7 +291,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1141,7 +303,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1155,12 +317,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1188,14 +350,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1223,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1364,41 +560,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E7AA7-F366-49D6-9834-21260835D0FD}">
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="10.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
-    <col min="9" max="9" width="15.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
-    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1432,50 +630,53 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>44386</v>
@@ -1484,10 +685,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -1510,10 +711,13 @@
       <c r="M5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6">
         <v>44417</v>
@@ -1522,10 +726,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -1548,10 +752,13 @@
       <c r="M6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6">
         <v>44448</v>
@@ -1560,10 +767,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -1586,51 +793,57 @@
       <c r="M7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6">
         <v>44386</v>
@@ -1639,10 +852,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -1665,10 +878,13 @@
       <c r="M9">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
         <v>44417</v>
@@ -1677,10 +893,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -1703,10 +919,13 @@
       <c r="M10">
         <v>200000</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>44448</v>
@@ -1715,10 +934,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -1741,51 +960,57 @@
       <c r="M11">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
         <v>44386</v>
@@ -1794,10 +1019,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -1820,10 +1045,13 @@
       <c r="M13">
         <v>300000</v>
       </c>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>44417</v>
@@ -1832,10 +1060,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -1858,10 +1086,13 @@
       <c r="M14">
         <v>300000</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6">
         <v>44448</v>
@@ -1870,10 +1101,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -1896,8 +1127,11 @@
       <c r="M15">
         <v>300000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1914,12 +1148,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>880</v>
@@ -1931,50 +1165,53 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6">
         <v>44478</v>
@@ -1983,10 +1220,10 @@
         <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>500000</v>
@@ -2009,10 +1246,13 @@
       <c r="M20">
         <v>100000</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6">
         <v>44509</v>
@@ -2021,10 +1261,10 @@
         <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>500000</v>
@@ -2047,10 +1287,13 @@
       <c r="M21">
         <v>100000</v>
       </c>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6">
         <v>44539</v>
@@ -2059,10 +1302,10 @@
         <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>500000</v>
@@ -2085,22 +1328,25 @@
       <c r="M22">
         <v>100000</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>500000</v>
@@ -2123,22 +1369,25 @@
       <c r="M23">
         <v>100000</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>500000</v>
@@ -2161,51 +1410,57 @@
       <c r="M24">
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6">
         <v>44478</v>
@@ -2214,10 +1469,10 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>1000000</v>
@@ -2240,10 +1495,13 @@
       <c r="M26">
         <v>200000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6">
         <v>44509</v>
@@ -2252,10 +1510,10 @@
         <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>1000000</v>
@@ -2278,10 +1536,13 @@
       <c r="M27">
         <v>200000</v>
       </c>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6">
         <v>44539</v>
@@ -2290,10 +1551,10 @@
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>1000000</v>
@@ -2316,22 +1577,25 @@
       <c r="M28">
         <v>200000</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>1000000</v>
@@ -2354,22 +1618,25 @@
       <c r="M29">
         <v>200000</v>
       </c>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>1000000</v>
@@ -2392,51 +1659,57 @@
       <c r="M30">
         <v>200000</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6">
         <v>44478</v>
@@ -2445,10 +1718,10 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>2000000</v>
@@ -2471,10 +1744,13 @@
       <c r="M32">
         <v>300000</v>
       </c>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6">
         <v>44509</v>
@@ -2483,10 +1759,10 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>2000000</v>
@@ -2509,10 +1785,13 @@
       <c r="M33">
         <v>300000</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6">
         <v>44539</v>
@@ -2521,10 +1800,10 @@
         <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2000000</v>
@@ -2547,22 +1826,25 @@
       <c r="M34">
         <v>300000</v>
       </c>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>2000000</v>
@@ -2585,22 +1867,25 @@
       <c r="M35">
         <v>300000</v>
       </c>
-    </row>
-    <row r="36" spans="2:13">
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36">
         <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>2000000</v>
@@ -2623,8 +1908,11 @@
       <c r="M36">
         <v>300000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -2641,12 +1929,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>890</v>
@@ -2658,62 +1946,65 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="N40" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41">
         <v>500000</v>
@@ -2736,22 +2027,25 @@
       <c r="M41">
         <v>100000</v>
       </c>
-    </row>
-    <row r="42" spans="2:13">
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42">
         <v>500000</v>
@@ -2774,22 +2068,25 @@
       <c r="M42">
         <v>100000</v>
       </c>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43">
         <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43">
         <v>500000</v>
@@ -2812,22 +2109,25 @@
       <c r="M43">
         <v>100000</v>
       </c>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44">
         <v>500000</v>
@@ -2850,22 +2150,25 @@
       <c r="M44">
         <v>100000</v>
       </c>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>500000</v>
@@ -2888,22 +2191,25 @@
       <c r="M45">
         <v>100000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13">
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G46">
         <v>500000</v>
@@ -2926,63 +2232,69 @@
       <c r="M46">
         <v>100000</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="N47" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>1000000</v>
@@ -3005,22 +2317,25 @@
       <c r="M48">
         <v>200000</v>
       </c>
-    </row>
-    <row r="49" spans="2:13">
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>1000000</v>
@@ -3043,22 +2358,25 @@
       <c r="M49">
         <v>200000</v>
       </c>
-    </row>
-    <row r="50" spans="2:13">
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50">
         <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>1000000</v>
@@ -3081,22 +2399,25 @@
       <c r="M50">
         <v>200000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13">
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51">
         <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>1000000</v>
@@ -3119,22 +2440,25 @@
       <c r="M51">
         <v>200000</v>
       </c>
-    </row>
-    <row r="52" spans="2:13">
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>1000000</v>
@@ -3157,22 +2481,25 @@
       <c r="M52">
         <v>200000</v>
       </c>
-    </row>
-    <row r="53" spans="2:13">
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>1000000</v>
@@ -3195,63 +2522,69 @@
       <c r="M53">
         <v>200000</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="J54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="L54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="M54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="N54" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2000000</v>
@@ -3274,22 +2607,25 @@
       <c r="M55">
         <v>300000</v>
       </c>
-    </row>
-    <row r="56" spans="2:13">
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>2000000</v>
@@ -3312,22 +2648,25 @@
       <c r="M56">
         <v>300000</v>
       </c>
-    </row>
-    <row r="57" spans="2:13">
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57">
         <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>2000000</v>
@@ -3350,22 +2689,25 @@
       <c r="M57">
         <v>300000</v>
       </c>
-    </row>
-    <row r="58" spans="2:13">
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D58">
         <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2000000</v>
@@ -3388,22 +2730,25 @@
       <c r="M58">
         <v>300000</v>
       </c>
-    </row>
-    <row r="59" spans="2:13">
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D59">
         <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2000000</v>
@@ -3426,22 +2771,25 @@
       <c r="M59">
         <v>300000</v>
       </c>
-    </row>
-    <row r="60" spans="2:13">
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>2000000</v>
@@ -3464,9 +2812,11 @@
       <c r="M60">
         <v>300000</v>
       </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD43B64B-713D-45E0-8792-CDC2919C21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94806F26-3583-4D80-B86F-3454FC9F5E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{EF7EF3D9-521D-4C39-BC2E-0EFCE83EFBCD}"/>
+    <workbookView xWindow="4488" yWindow="1632" windowWidth="17280" windowHeight="8880" xr2:uid="{4535BEFC-1487-47AF-99DB-F725B2915431}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E7AA7-F366-49D6-9834-21260835D0FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961CA1BC-7E2E-4F7D-8FDA-9ACC76A482EB}">
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -712,7 +712,7 @@
         <v>100000</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
         <v>100000</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
